--- a/input_data/input_data_complete.xlsx
+++ b/input_data/input_data_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8A97E8-2E43-42FB-8719-8BF1C360E639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1522FF91-E4F0-4962-9928-109BDDECBEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
@@ -4730,7 +4730,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data_complete.xlsx
+++ b/input_data/input_data_complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1522FF91-E4F0-4962-9928-109BDDECBEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84422B6A-2559-4A65-8C7F-AFA1A103BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="2820" yWindow="4275" windowWidth="21600" windowHeight="11205" tabRatio="796" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -985,164 +985,164 @@
       <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
     </row>
   </sheetData>
@@ -1155,16 +1155,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1193,7 +1193,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1208,7 +1208,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1223,127 +1223,127 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1364,9 +1364,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1396,14 +1396,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1423,7 +1423,7 @@
       <c r="C2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1432,7 +1432,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1441,127 +1441,127 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1582,13 +1582,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="4" max="7" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="4" max="7" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1760,127 +1760,127 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1901,13 +1901,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1975,50 +1975,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2039,12 +2039,12 @@
       <selection activeCell="B5" sqref="B5:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2061,7 +2061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2070,7 +2070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2079,127 +2079,127 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2219,17 +2219,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -2348,12 +2348,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2388,7 +2388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2406,7 +2406,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2424,127 +2424,127 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2565,12 +2565,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2599,7 +2599,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2614,7 +2614,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2629,127 +2629,127 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2770,16 +2770,16 @@
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2826,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2850,7 +2850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2874,127 +2874,127 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3015,13 +3015,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -3115,14 +3115,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3175,7 +3175,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3205,7 +3205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3235,127 +3235,127 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3376,12 +3376,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="AP1"/>
       <c r="AQ1"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3479,127 +3479,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3620,12 +3620,12 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -3663,9 +3663,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3711,162 +3711,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3886,12 +3886,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3920,7 +3920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3935,7 +3935,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3950,127 +3950,127 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4091,14 +4091,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4173,18 +4173,18 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4285,7 +4285,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4336,7 +4336,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4387,127 +4387,127 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4528,12 +4528,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4562,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4577,7 +4577,7 @@
         <v>4.28571428571429</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4592,127 +4592,127 @@
         <v>4.28571428571429</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4729,24 +4729,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -5261,22 +5261,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -5767,9 +5767,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>180</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5838,9 +5838,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -5938,20 +5938,20 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>145</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>145</v>
       </c>
@@ -6509,15 +6509,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6586,112 +6586,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6711,14 +6711,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>

--- a/input_data/input_data_complete.xlsx
+++ b/input_data/input_data_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84422B6A-2559-4A65-8C7F-AFA1A103BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2196D9-14DE-4BCF-B7A3-78DDD9B36B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="4275" windowWidth="21600" windowHeight="11205" tabRatio="796" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="12" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="182">
   <si>
     <t>node</t>
   </si>
@@ -440,9 +440,6 @@
     <t>use_market_bids</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -603,6 +600,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -982,167 +985,171 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>44671.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>44671.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
     </row>
   </sheetData>
@@ -1155,30 +1162,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1193,7 +1200,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1208,7 +1215,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1223,127 +1230,145 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>0.02</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1364,9 +1389,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -1374,7 +1399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1393,17 +1418,17 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1412,7 +1437,7 @@
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1423,7 +1448,7 @@
       <c r="C2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1432,7 +1457,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1441,127 +1466,133 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1578,17 +1609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="4" max="7" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="4" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1611,25 +1642,25 @@
         <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1672,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1716,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1745,10 +1776,10 @@
         <v>-2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1760,127 +1791,215 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <v>-8</v>
+      </c>
+      <c r="D5">
+        <f>B5</f>
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:G6" si="2">C5</f>
+        <v>-8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f>E5</f>
+        <v>-8</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <f>H5</f>
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <f>I5</f>
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>K5</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>L5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="D6">
+        <f>B6</f>
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f>K6</f>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>L6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1901,30 +2020,30 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="2" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>163</v>
       </c>
-      <c r="D1" t="s">
-        <v>164</v>
-      </c>
       <c r="E1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1941,7 +2060,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1958,7 +2077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1975,50 +2094,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2036,15 +2155,15 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B32"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2052,7 +2171,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2061,7 +2180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2070,7 +2189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2079,127 +2198,133 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2219,22 +2344,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2264,7 +2389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2299,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -2345,32 +2470,32 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>174</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="E1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2388,7 +2513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2406,7 +2531,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2424,127 +2549,151 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2562,15 +2711,15 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2584,7 +2733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2599,7 +2748,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2614,7 +2763,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2629,127 +2778,145 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>0.27</v>
+      </c>
+      <c r="C5">
+        <v>0.27</v>
+      </c>
+      <c r="D5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>0.27</v>
+      </c>
+      <c r="C6">
+        <v>0.27</v>
+      </c>
+      <c r="D6">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2767,19 +2934,19 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2802,7 +2969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2826,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2850,7 +3017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2874,127 +3041,163 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3009,19 +3212,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82624B08-6930-4D2B-BCBB-C78CE759E704}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -3029,7 +3232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -3037,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3045,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -3053,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -3061,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -3069,36 +3272,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3112,17 +3323,17 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3145,7 +3356,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3175,7 +3386,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3205,7 +3416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3235,127 +3446,175 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <f>1.1*market_prices!B5</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="C5">
+        <f>1.1*market_prices!C5</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D5">
+        <f>1.1*market_prices!C5</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="E5">
+        <f>0.9*market_prices!B5</f>
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <f>0.9*market_prices!C5</f>
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <f>0.9*market_prices!C5</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <f>1.1*market_prices!B6</f>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="C6">
+        <f>1.1*market_prices!C6</f>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="D6">
+        <f>1.1*market_prices!C6</f>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E6">
+        <f>0.9*market_prices!B6</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F6">
+        <f>0.9*market_prices!C6</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G6">
+        <f>0.9*market_prices!C6</f>
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3376,12 +3635,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3434,7 +3693,7 @@
       <c r="AP1"/>
       <c r="AQ1"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3449,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3464,7 +3723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3479,127 +3738,145 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3620,12 +3897,12 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -3633,7 +3910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -3641,7 +3918,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -3663,9 +3940,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3673,7 +3950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3681,7 +3958,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -3689,7 +3966,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3711,162 +3988,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
+        <v>44671.125</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
+        <v>44671.166666666664</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3883,29 +4160,29 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3920,7 +4197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3935,7 +4212,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3950,127 +4227,145 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4085,20 +4380,23 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="12" max="21" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4112,7 +4410,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4126,27 +4424,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
         <v>152</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
         <v>153</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -4154,10 +4452,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4170,21 +4475,21 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -4216,25 +4521,25 @@
         <v>78</v>
       </c>
       <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
         <v>156</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" t="s">
         <v>157</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" t="s">
         <v>165</v>
       </c>
-      <c r="N1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4285,7 +4590,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4336,7 +4641,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4387,127 +4692,217 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-0.8</v>
+      </c>
+      <c r="F5">
+        <v>-0.8</v>
+      </c>
+      <c r="G5">
+        <v>-0.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>300</v>
+      </c>
+      <c r="M5">
+        <v>300</v>
+      </c>
+      <c r="N5">
+        <v>256</v>
+      </c>
+      <c r="O5">
+        <v>256</v>
+      </c>
+      <c r="P5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-0.8</v>
+      </c>
+      <c r="F6">
+        <v>-0.8</v>
+      </c>
+      <c r="G6">
+        <v>-0.8</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>300</v>
+      </c>
+      <c r="N6">
+        <v>256</v>
+      </c>
+      <c r="O6">
+        <v>256</v>
+      </c>
+      <c r="P6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4525,15 +4920,15 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -4547,7 +4942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4562,7 +4957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4577,7 +4972,7 @@
         <v>4.28571428571429</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4592,127 +4987,145 @@
         <v>4.28571428571429</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+        <v>44671.125</v>
+      </c>
+      <c r="B5">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C5">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D5">
+        <v>4.28571428571429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44671.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C6">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D6">
+        <v>4.28571428571429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4733,20 +5146,20 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4784,19 +5197,19 @@
         <v>89</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>116</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4846,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4896,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4946,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5046,9 +5459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -5097,9 +5510,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -5147,9 +5560,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -5197,9 +5610,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -5261,22 +5674,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -5323,13 +5736,13 @@
         <v>79</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5382,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5435,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5488,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5541,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -5594,9 +6007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -5647,9 +6060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -5700,9 +6113,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -5767,11 +6180,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>102</v>
@@ -5780,7 +6193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5791,7 +6204,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5802,7 +6215,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5813,7 +6226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5838,9 +6251,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -5884,7 +6297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -5904,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -5938,20 +6351,20 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5968,7 +6381,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>22</v>
@@ -5980,10 +6393,10 @@
         <v>120</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -6015,7 +6428,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -6047,7 +6460,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -6079,7 +6492,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -6111,7 +6524,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -6143,7 +6556,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -6175,7 +6588,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -6207,7 +6620,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -6239,7 +6652,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -6271,7 +6684,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -6303,9 +6716,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
@@ -6335,15 +6748,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -6367,15 +6780,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -6399,9 +6812,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
@@ -6431,15 +6844,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -6463,9 +6876,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -6506,41 +6919,41 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" t="s">
-        <v>143</v>
-      </c>
       <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6563,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6586,112 +6999,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6711,14 +7124,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
@@ -6735,12 +7148,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2">
         <v>2</v>
